--- a/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,79; 87,07</t>
+          <t>68,91; 86,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,72; 86,36</t>
+          <t>73,44; 86,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,28; 84,85</t>
+          <t>74,32; 84,8</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,1; 92,31</t>
+          <t>87,3; 92,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,49; 89,51</t>
+          <t>84,33; 89,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,49; 90,03</t>
+          <t>86,46; 89,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,53; 91,57</t>
+          <t>86,53; 91,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,0; 89,91</t>
+          <t>85,93; 89,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,04; 90,3</t>
+          <t>86,89; 90,08</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,54; 89,46</t>
+          <t>83,51; 89,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,63; 92,3</t>
+          <t>84,72; 92,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,1; 90,34</t>
+          <t>85,2; 90,2</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,17; 90,5</t>
+          <t>86,37; 90,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,96; 88,54</t>
+          <t>82,67; 88,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,17; 88,79</t>
+          <t>85,04; 88,94</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,98; 89,46</t>
+          <t>87,05; 89,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,6; 88,49</t>
+          <t>85,65; 88,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,53; 88,51</t>
+          <t>86,74; 88,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,91; 86,86</t>
+          <t>69,79; 87,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,44; 86,55</t>
+          <t>73,72; 86,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,32; 84,8</t>
+          <t>74,28; 84,85</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,3; 92,38</t>
+          <t>87,1; 92,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,33; 89,39</t>
+          <t>84,49; 89,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,46; 89,93</t>
+          <t>86,49; 90,03</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,53; 91,67</t>
+          <t>86,53; 91,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,93; 89,74</t>
+          <t>86,0; 89,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,89; 90,08</t>
+          <t>87,04; 90,3</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,51; 89,18</t>
+          <t>83,54; 89,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,72; 92,5</t>
+          <t>84,63; 92,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,2; 90,2</t>
+          <t>85,1; 90,34</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,37; 90,53</t>
+          <t>86,17; 90,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,67; 88,47</t>
+          <t>81,96; 88,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,04; 88,94</t>
+          <t>85,17; 88,79</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,05; 89,49</t>
+          <t>86,98; 89,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,65; 88,54</t>
+          <t>85,6; 88,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,74; 88,71</t>
+          <t>86,53; 88,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,58%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>80,67%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>80,18%</t>
+          <t>86,08%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,79; 87,07</t>
+          <t>83,25; 89,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,72; 86,36</t>
+          <t>82,8; 87,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,28; 84,85</t>
+          <t>83,98; 87,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>90,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>89,05%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,1; 92,31</t>
+          <t>86,61; 95,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,49; 89,51</t>
+          <t>85,28; 89,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,49; 90,03</t>
+          <t>86,8; 93,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>87,16%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,53; 91,57</t>
+          <t>82,26; 88,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,0; 89,91</t>
+          <t>84,13; 94,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,04; 90,3</t>
+          <t>84,58; 92,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,13%</t>
+          <t>84,4%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,54; 89,46</t>
+          <t>85,8; 90,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,63; 92,3</t>
+          <t>64,8; 87,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,1; 90,34</t>
+          <t>72,02; 87,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>86,48%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>86,76%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,17; 90,5</t>
+          <t>86,59; 91,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,96; 88,54</t>
+          <t>79,01; 87,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,17; 88,79</t>
+          <t>83,85; 88,5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>88,23%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>87,07%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>87,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>86,98; 89,46</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>85,6; 88,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>86,53; 88,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,25; 89,64</t>
+          <t>82,82; 89,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,8; 87,47</t>
+          <t>82,78; 87,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,98; 87,91</t>
+          <t>84,08; 87,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,61; 95,65</t>
+          <t>86,7; 95,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,28; 89,28</t>
+          <t>85,34; 89,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,8; 93,06</t>
+          <t>86,76; 92,45</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,26; 88,65</t>
+          <t>82,09; 88,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,13; 94,68</t>
+          <t>84,11; 94,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,58; 92,12</t>
+          <t>84,44; 91,71</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,8; 90,28</t>
+          <t>85,89; 90,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,8; 87,69</t>
+          <t>62,82; 87,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,02; 87,93</t>
+          <t>71,6; 88,12</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,59; 91,03</t>
+          <t>86,56; 91,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,01; 87,97</t>
+          <t>79,85; 87,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>83,85; 88,5</t>
+          <t>83,85; 88,45</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1478</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>492382</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>503602</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>995984</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>468849; 508445</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>489151; 517695</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>972744; 1016791</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1006296</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>776101</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1782398</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>965302; 1063935</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>758023; 791863</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1736600; 1850443</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>565732</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>759107</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1324840</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>542924; 585239</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>722075; 807953</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1283495; 1393879</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>764369</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>818634</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1583003</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>743953; 780386</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>634163; 883608</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1342864; 1652765</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2675</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6857</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2828781</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2857444</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5686225</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2776002; 2918806</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2672728; 2942438</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5495729; 5797475</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>